--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/31.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/31.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2419116689462809</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.117019154018344</v>
+        <v>-2.095324885467093</v>
       </c>
       <c r="F2" t="n">
-        <v>0.133676581680118</v>
+        <v>0.1481256025122794</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02961008605133407</v>
+        <v>0.03837525609688041</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2585761786782361</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.112080016378039</v>
+        <v>-2.072637666054095</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05602453071993896</v>
+        <v>0.07553589316910933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03482734752023695</v>
+        <v>0.04874512744295089</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.294784586646774</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.19544641415867</v>
+        <v>-2.138673777725607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01055372442701774</v>
+        <v>0.02292535543417535</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06375954474245783</v>
+        <v>0.08502503905795562</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3368547627488713</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.298424201379459</v>
+        <v>-2.21810313753783</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03557579619679137</v>
+        <v>-0.03507078187644398</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08009992959321505</v>
+        <v>0.1013282187474312</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3661455264961873</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.384644418006594</v>
+        <v>-2.284449088913131</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.03083732245913571</v>
+        <v>-0.02664838725123005</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1180699314034886</v>
+        <v>0.1419471060568216</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3686839767946838</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.288025053840904</v>
+        <v>-2.172454234407299</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02023751101793121</v>
+        <v>-0.01903352760203054</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08391925287101139</v>
+        <v>0.1020546342734381</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3438510508186016</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.065468658419598</v>
+        <v>-1.921760978326251</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05149167625653195</v>
+        <v>-0.07178007764787935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1529543445100938</v>
+        <v>0.1761496278468225</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2977355802898904</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.699147860282008</v>
+        <v>-1.565489843179438</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1662006777738927</v>
+        <v>-0.2023579953328711</v>
       </c>
       <c r="G9" t="n">
-        <v>0.123760491317548</v>
+        <v>0.1444569296416399</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.234742076463332</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.25596241877792</v>
+        <v>-1.101558559776442</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2998849214655623</v>
+        <v>-0.3393931432225945</v>
       </c>
       <c r="G10" t="n">
-        <v>0.187136738917762</v>
+        <v>0.2053294528638031</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1565097068056591</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5889623154963951</v>
+        <v>-0.3934607814542796</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5951645988582461</v>
+        <v>-0.6452543344361803</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2184201803488466</v>
+        <v>0.2392733682868627</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06361730657484797</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1429858009693236</v>
+        <v>0.3738907906139569</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.023576541730143</v>
+        <v>-1.092271907552276</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3566495529236428</v>
+        <v>0.3849596310555806</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.04340370441776398</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9133589200701698</v>
+        <v>1.195508225133821</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.460694492341941</v>
+        <v>-1.541252205406147</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4886559048335784</v>
+        <v>0.5204047157410219</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1619046295015053</v>
       </c>
       <c r="E14" t="n">
-        <v>1.62538641731262</v>
+        <v>1.927348385639756</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.979883369216958</v>
+        <v>-2.083754080308505</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7017475511931079</v>
+        <v>0.7440949537004024</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2902169569149567</v>
       </c>
       <c r="E15" t="n">
-        <v>2.288838002096825</v>
+        <v>2.621044716942543</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.529701242636908</v>
+        <v>-2.660415172632815</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8813966369258647</v>
+        <v>0.9371153304295067</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4273991596189631</v>
       </c>
       <c r="E16" t="n">
-        <v>2.993392751207758</v>
+        <v>3.350470811409909</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.98088335413384</v>
+        <v>-3.12412901931455</v>
       </c>
       <c r="G16" t="n">
-        <v>1.087127150637722</v>
+        <v>1.148112509185083</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5724627213246269</v>
       </c>
       <c r="E17" t="n">
-        <v>3.559422316215672</v>
+        <v>3.935127353885708</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.455551681130309</v>
+        <v>-3.598849494528881</v>
       </c>
       <c r="G17" t="n">
-        <v>1.3057312600737</v>
+        <v>1.376988292738176</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7211829690596426</v>
       </c>
       <c r="E18" t="n">
-        <v>3.974173255769766</v>
+        <v>4.367848996259506</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.865866972562752</v>
+        <v>-3.996712950385175</v>
       </c>
       <c r="G18" t="n">
-        <v>1.543133124767054</v>
+        <v>1.612852547405448</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8681602801068853</v>
       </c>
       <c r="E19" t="n">
-        <v>4.245628211687317</v>
+        <v>4.646560788389007</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.286853741115918</v>
+        <v>-4.43510685505273</v>
       </c>
       <c r="G19" t="n">
-        <v>1.746373942276426</v>
+        <v>1.813211489717185</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.0073700504851</v>
       </c>
       <c r="E20" t="n">
-        <v>4.613393301987447</v>
+        <v>5.016320319302102</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.656980139316078</v>
+        <v>-4.800958014269225</v>
       </c>
       <c r="G20" t="n">
-        <v>1.977804683544416</v>
+        <v>2.058876559739121</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.134172576077383</v>
       </c>
       <c r="E21" t="n">
-        <v>4.847400348194021</v>
+        <v>5.238444890884271</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.988325646166228</v>
+        <v>-5.129814129877227</v>
       </c>
       <c r="G21" t="n">
-        <v>2.222792131694485</v>
+        <v>2.299495756002321</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.243942527815269</v>
       </c>
       <c r="E22" t="n">
-        <v>5.037806604902583</v>
+        <v>5.420023155717582</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.283606848360604</v>
+        <v>-5.41606515149201</v>
       </c>
       <c r="G22" t="n">
-        <v>2.35864342355064</v>
+        <v>2.443138174583256</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.333758385933389</v>
       </c>
       <c r="E23" t="n">
-        <v>5.159637040241654</v>
+        <v>5.513941181205954</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.498950626819025</v>
+        <v>-5.617910013052474</v>
       </c>
       <c r="G23" t="n">
-        <v>2.500159658652432</v>
+        <v>2.598419099517897</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.399877216443528</v>
       </c>
       <c r="E24" t="n">
-        <v>5.195538191116398</v>
+        <v>5.55185263063126</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.715280951972087</v>
+        <v>-5.837912823080405</v>
       </c>
       <c r="G24" t="n">
-        <v>2.641200155626359</v>
+        <v>2.735406063674157</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.441271873186471</v>
       </c>
       <c r="E25" t="n">
-        <v>5.28897437927014</v>
+        <v>5.635516669702144</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.794256225840471</v>
+        <v>-5.913241991143189</v>
       </c>
       <c r="G25" t="n">
-        <v>2.721624296062358</v>
+        <v>2.832288303651526</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.457141069004688</v>
       </c>
       <c r="E26" t="n">
-        <v>5.326000223872808</v>
+        <v>5.667314274263728</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.824937980523943</v>
+        <v>-5.92042517943342</v>
       </c>
       <c r="G26" t="n">
-        <v>2.722383037384233</v>
+        <v>2.832460301282369</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.450728462750483</v>
       </c>
       <c r="E27" t="n">
-        <v>5.369115516512128</v>
+        <v>5.698631261332034</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.927001801610625</v>
+        <v>-6.008686038164785</v>
       </c>
       <c r="G27" t="n">
-        <v>2.714146668565427</v>
+        <v>2.816990273237331</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.424777748441316</v>
       </c>
       <c r="E28" t="n">
-        <v>5.340022300231245</v>
+        <v>5.668141326701399</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.845802451994479</v>
+        <v>-5.905726548564299</v>
       </c>
       <c r="G28" t="n">
-        <v>2.662441253114787</v>
+        <v>2.757847485054425</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.384646312694395</v>
       </c>
       <c r="E29" t="n">
-        <v>5.272105193192642</v>
+        <v>5.578246337996855</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.76596551269002</v>
+        <v>-5.808208771241759</v>
       </c>
       <c r="G29" t="n">
-        <v>2.553777785345353</v>
+        <v>2.638484788773477</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.334091377119641</v>
       </c>
       <c r="E30" t="n">
-        <v>5.15613609555712</v>
+        <v>5.434179414624904</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.68170786832049</v>
+        <v>-5.728232770023001</v>
       </c>
       <c r="G30" t="n">
-        <v>2.463672983928009</v>
+        <v>2.533332024419405</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.278128855400118</v>
       </c>
       <c r="E31" t="n">
-        <v>5.01440394853576</v>
+        <v>5.285871102866846</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.556999369788014</v>
+        <v>-5.588190865677078</v>
       </c>
       <c r="G31" t="n">
-        <v>2.320096436780163</v>
+        <v>2.381637433064042</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.219742045012259</v>
       </c>
       <c r="E32" t="n">
-        <v>4.811036877446301</v>
+        <v>5.078467576738669</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.372786400111321</v>
+        <v>-5.395888670544846</v>
       </c>
       <c r="G32" t="n">
-        <v>2.217086933684183</v>
+        <v>2.274941569397797</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.161968443383492</v>
       </c>
       <c r="E33" t="n">
-        <v>4.571585679279075</v>
+        <v>4.810292774220668</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.18631657145049</v>
+        <v>-5.218440483574134</v>
       </c>
       <c r="G33" t="n">
-        <v>2.072176490016289</v>
+        <v>2.120891464388833</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.104824353329675</v>
       </c>
       <c r="E34" t="n">
-        <v>4.346770137671093</v>
+        <v>4.569342391029995</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.918059429641129</v>
+        <v>-4.954203633905558</v>
       </c>
       <c r="G34" t="n">
-        <v>1.884739327162136</v>
+        <v>1.937227880761721</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.050232230400697</v>
       </c>
       <c r="E35" t="n">
-        <v>4.067494778836279</v>
+        <v>4.268508775954843</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.733364775109974</v>
+        <v>-4.765289243172321</v>
       </c>
       <c r="G35" t="n">
-        <v>1.825719133035257</v>
+        <v>1.878791990643166</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9971120821973724</v>
       </c>
       <c r="E36" t="n">
-        <v>3.760099637120672</v>
+        <v>3.933259776773506</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.486272490704447</v>
+        <v>-4.511834266266959</v>
       </c>
       <c r="G36" t="n">
-        <v>1.712160441914243</v>
+        <v>1.761514613156019</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9467796507713979</v>
       </c>
       <c r="E37" t="n">
-        <v>3.461778895233722</v>
+        <v>3.628322615385193</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.312272185319393</v>
+        <v>-4.337168232463234</v>
       </c>
       <c r="G37" t="n">
-        <v>1.62750772142635</v>
+        <v>1.675798191007877</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8983276951706097</v>
       </c>
       <c r="E38" t="n">
-        <v>3.130001564544434</v>
+        <v>3.279235735889796</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.084085002210349</v>
+        <v>-4.096378258410544</v>
       </c>
       <c r="G38" t="n">
-        <v>1.490071855652003</v>
+        <v>1.531722728746451</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8527651714746965</v>
       </c>
       <c r="E39" t="n">
-        <v>2.872968792949268</v>
+        <v>3.00292581138533</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.941018348748264</v>
+        <v>-3.952545239618126</v>
       </c>
       <c r="G39" t="n">
-        <v>1.372341307102033</v>
+        <v>1.404426794223041</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8082878700278096</v>
       </c>
       <c r="E40" t="n">
-        <v>2.61187760917102</v>
+        <v>2.73330305718073</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.834693621813821</v>
+        <v>-3.848828838457795</v>
       </c>
       <c r="G40" t="n">
-        <v>1.231961964141699</v>
+        <v>1.25827028261255</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7654819000619892</v>
       </c>
       <c r="E41" t="n">
-        <v>2.317578684226547</v>
+        <v>2.423193768453594</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.654833808487247</v>
+        <v>-3.672648066653366</v>
       </c>
       <c r="G41" t="n">
-        <v>1.147619083357594</v>
+        <v>1.175869389263211</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.722349165222848</v>
       </c>
       <c r="E42" t="n">
-        <v>2.022958941006105</v>
+        <v>2.116157870016592</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.507570290848459</v>
+        <v>-3.509320458230388</v>
       </c>
       <c r="G42" t="n">
-        <v>1.024782888822566</v>
+        <v>1.039191044969385</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6800907419106414</v>
       </c>
       <c r="E43" t="n">
-        <v>1.770737833629803</v>
+        <v>1.858453575756325</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.327848929515508</v>
+        <v>-3.323222376222035</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9071517573429049</v>
+        <v>0.9120512501392221</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6384230292652918</v>
       </c>
       <c r="E44" t="n">
-        <v>1.488617194837959</v>
+        <v>1.561904653435329</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.250061476165091</v>
+        <v>-3.245621558598703</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8788056938910389</v>
+        <v>0.8947874453838682</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.598866852758312</v>
       </c>
       <c r="E45" t="n">
-        <v>1.3247382181232</v>
+        <v>1.391597722708322</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.085665286716449</v>
+        <v>-3.068636301421643</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7625371252032334</v>
+        <v>0.7723190330169187</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5608041703198648</v>
       </c>
       <c r="E46" t="n">
-        <v>1.128015012965558</v>
+        <v>1.185074922037369</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.981383489088773</v>
+        <v>-2.963439012858169</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6572062640115507</v>
+        <v>0.6648583288220319</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5252943381007302</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9375361756964629</v>
+        <v>0.983103959376987</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.870125418760453</v>
+        <v>-2.847026502890651</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6018651114068156</v>
+        <v>0.6101313663387821</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4915741174210638</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7849126751504126</v>
+        <v>0.8372463088981029</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.77513088327762</v>
+        <v>-2.74470925976278</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5305617247709072</v>
+        <v>0.5426869478246586</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4593489656504748</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6720553928076589</v>
+        <v>0.7160660490004453</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.685043769559901</v>
+        <v>-2.655249754421436</v>
       </c>
       <c r="G49" t="n">
-        <v>0.459662105623006</v>
+        <v>0.4744837879886605</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4273532016376996</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4922556566677455</v>
+        <v>0.5306038092976029</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.587882795833259</v>
+        <v>-2.55344179505865</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3873810161422704</v>
+        <v>0.3968561338555515</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3950581855029445</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3759169471021139</v>
+        <v>0.4102829276334832</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.46664276370928</v>
+        <v>-2.426033635130718</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3256686321482251</v>
+        <v>0.3428196015783805</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3614541419264972</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2718675292522789</v>
+        <v>0.3077089079007018</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.386282055023663</v>
+        <v>-2.357190668504811</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2983746818637495</v>
+        <v>0.3147156766351835</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3267241443703937</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1481981830728125</v>
+        <v>0.1765576647795669</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.28527065206471</v>
+        <v>-2.255247916672463</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2742321917160311</v>
+        <v>0.2910885694593172</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2909582471210307</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01302939245393811</v>
+        <v>0.02697217912439872</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.212155191098183</v>
+        <v>-2.17554104295232</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2385768388740165</v>
+        <v>0.2508941869409435</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.255090620958029</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.01987704789797311</v>
+        <v>-0.009926801977505293</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.151314383751211</v>
+        <v>-2.114667299888804</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1755403170907512</v>
+        <v>0.1837919339264756</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2190698425865699</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08711897274741626</v>
+        <v>-0.07833306539886048</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.101285030320275</v>
+        <v>-2.060946706522188</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1393177380193607</v>
+        <v>0.1451144241311743</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1836972466366128</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1907115600103669</v>
+        <v>-0.1733611465189149</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.083685159272033</v>
+        <v>-2.059471918325812</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1256713727977997</v>
+        <v>0.1384211546245411</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1489192772647552</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2085474703605104</v>
+        <v>-0.184472681407911</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.060485606490567</v>
+        <v>-2.028391580480084</v>
       </c>
       <c r="G58" t="n">
-        <v>0.111752982954409</v>
+        <v>0.120874956595853</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.11526866665469</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2974781744751144</v>
+        <v>-0.277204411180009</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.020330868816182</v>
+        <v>-1.991700582328951</v>
       </c>
       <c r="G59" t="n">
-        <v>0.07894291006942399</v>
+        <v>0.09135723552395396</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.08259515212290743</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3124346493103303</v>
+        <v>-0.2864142133989047</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.05738842929404</v>
+        <v>-2.036465710398875</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0564526950350161</v>
+        <v>0.07027654717351083</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.0510463389267219</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3356616485222499</v>
+        <v>-0.2996214357332071</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.06123336924026</v>
+        <v>-2.0433218287262</v>
       </c>
       <c r="G61" t="n">
-        <v>0.05685524268166982</v>
+        <v>0.06673229812092786</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.02009141398408107</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3642870556440665</v>
+        <v>-0.3265677312319363</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.003740416487958</v>
+        <v>-2.000036978138743</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03361909465959905</v>
+        <v>0.05093230298976942</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.01044773960576318</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.3569173841069197</v>
+        <v>-0.3095753411777354</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.040894344432743</v>
+        <v>-2.045654165394085</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00867699850466397</v>
+        <v>0.0338850200746612</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.04094188679504417</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.3405105179023969</v>
+        <v>-0.282866914742938</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.104557254751028</v>
+        <v>-2.113270581539051</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01923472541917285</v>
+        <v>0.0418944984017167</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.07181221774308962</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.3136551005845032</v>
+        <v>-0.2487259949412887</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.185573628164149</v>
+        <v>-2.198033087748759</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01474814892101414</v>
+        <v>0.04493129345124528</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1032833296749609</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3578505627423442</v>
+        <v>-0.2847412009825848</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.233628668364452</v>
+        <v>-2.246386989080668</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.01414379353654137</v>
+        <v>0.01252071860953023</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1350221430763223</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3058194496503209</v>
+        <v>-0.2217138280094707</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.278719494075759</v>
+        <v>-2.300810211066897</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.03192176142239376</v>
+        <v>-0.005068173866530264</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1668197134169581</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3204788931159605</v>
+        <v>-0.2236985098916089</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.36655173105154</v>
+        <v>-2.391569457370392</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05083723137038128</v>
+        <v>-0.02591282291507189</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1977038813603764</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3105981781526419</v>
+        <v>-0.2101222855478738</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.393014359453608</v>
+        <v>-2.406510074268012</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.03246825034876002</v>
+        <v>-0.003880048388225047</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2271499216234433</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2816458535480884</v>
+        <v>-0.1787266187122676</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.411818823838427</v>
+        <v>-2.432313378418516</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0166456881525619</v>
+        <v>0.01042686092625415</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2544788743517039</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2940162647138925</v>
+        <v>-0.1823562566595953</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.508739488818431</v>
+        <v>-2.542948719735876</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.02905208463829415</v>
+        <v>0.0002350864177941002</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2796826465881401</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2929049892408575</v>
+        <v>-0.1808424335399066</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.60719898366587</v>
+        <v>-2.647214659425956</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07986274645614461</v>
+        <v>-0.0554939757373527</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3023382022099826</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1915325132412698</v>
+        <v>-0.06076308046377917</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.644531008448265</v>
+        <v>-2.686621634350649</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1092072500558472</v>
+        <v>-0.08436213128851504</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3219870161967236</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.1631785208206061</v>
+        <v>-0.03821797256846396</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.696078454443627</v>
+        <v>-2.743302172761522</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.09766145164500643</v>
+        <v>-0.06861824885961741</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3385161791842621</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.1084905932606682</v>
+        <v>0.01632052442567063</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.704759455435783</v>
+        <v>-2.749362954526368</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1088309289982936</v>
+        <v>-0.08595890362024144</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3519034293127042</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01267746822345448</v>
+        <v>0.1301018365936976</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.751032307418627</v>
+        <v>-2.813962703004139</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.08119664297619261</v>
+        <v>-0.06195791506952862</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3621917066575843</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0316551500804703</v>
+        <v>0.1495906319778283</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.742394000873845</v>
+        <v>-2.793875575436118</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.07749198478562491</v>
+        <v>-0.05556899598059271</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3693395502769964</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1642586143329423</v>
+        <v>0.2725366122346716</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.759641947691603</v>
+        <v>-2.811930447309214</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.09177449727303418</v>
+        <v>-0.07318716464913712</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3723390187184403</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2569372810061633</v>
+        <v>0.3689943474210234</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.74877926043872</v>
+        <v>-2.792734413849922</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.05151485324224837</v>
+        <v>-0.03353134208833188</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3707179343222681</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3121113153454693</v>
+        <v>0.4116131646294707</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.692964199468152</v>
+        <v>-2.72467641513499</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04286007883919343</v>
+        <v>-0.02351888425883577</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3641174055734735</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5224028158780485</v>
+        <v>0.6151491837463884</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.651687817669227</v>
+        <v>-2.67951300886315</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.05960911054337185</v>
+        <v>-0.03739945902026807</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3531037191652902</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6526440573494753</v>
+        <v>0.7317733361887381</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.640282910934715</v>
+        <v>-2.669594478817873</v>
       </c>
       <c r="G82" t="n">
-        <v>0.001115201954341548</v>
+        <v>0.01752938720698528</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3378328551161009</v>
       </c>
       <c r="E83" t="n">
-        <v>0.81494272959078</v>
+        <v>0.9004493390261205</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.586898993781664</v>
+        <v>-2.605818733174389</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0214969212092314</v>
+        <v>0.03706880600728607</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3189184482961644</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9725120769045803</v>
+        <v>1.059978971394989</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.526022201114764</v>
+        <v>-2.549916453547046</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0217799244032425</v>
+        <v>0.02867873717793978</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2963798951038169</v>
       </c>
       <c r="E85" t="n">
-        <v>1.128932943584064</v>
+        <v>1.211877886177062</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.484455497073707</v>
+        <v>-2.513546883592559</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03501947253341259</v>
+        <v>0.03555620272895088</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2704407027165153</v>
       </c>
       <c r="E86" t="n">
-        <v>1.317197158875887</v>
+        <v>1.390590743671011</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.451216649952968</v>
+        <v>-2.473463506637354</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02566816871751137</v>
+        <v>0.03154902388271615</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2409594757354218</v>
       </c>
       <c r="E87" t="n">
-        <v>1.416052492242535</v>
+        <v>1.493328222145161</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.35853371383501</v>
+        <v>-2.389221872685589</v>
       </c>
       <c r="G87" t="n">
-        <v>0.08553981210913097</v>
+        <v>0.08504516644028831</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2084740467534257</v>
       </c>
       <c r="E88" t="n">
-        <v>1.57737590132172</v>
+        <v>1.659190050980028</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.213249998712946</v>
+        <v>-2.238051813112229</v>
       </c>
       <c r="G88" t="n">
-        <v>0.114263416459904</v>
+        <v>0.1078501005438982</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1743756185318011</v>
       </c>
       <c r="E89" t="n">
-        <v>1.690573519402099</v>
+        <v>1.755755742126164</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.060576484671402</v>
+        <v>-2.083569884264127</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1109905821084739</v>
+        <v>0.1014343449451854</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1413087522529659</v>
       </c>
       <c r="E90" t="n">
-        <v>1.790263834175216</v>
+        <v>1.857485631642326</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.939029662447019</v>
+        <v>-1.962891589083433</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1160334062638269</v>
+        <v>0.1201070664638272</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1119053859842097</v>
       </c>
       <c r="E91" t="n">
-        <v>1.823915597594113</v>
+        <v>1.883824446147014</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.671348285756508</v>
+        <v>-1.695080909209452</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1489959593179989</v>
+        <v>0.1473882084140911</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.0885432321555629</v>
       </c>
       <c r="E92" t="n">
-        <v>1.775665382777251</v>
+        <v>1.829721432516078</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.436764864510407</v>
+        <v>-1.457544861967214</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1318962232246904</v>
+        <v>0.1287453730086099</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0723836105796536</v>
       </c>
       <c r="E93" t="n">
-        <v>1.851466324483499</v>
+        <v>1.912479129461315</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.221671458489791</v>
+        <v>-1.23185774371216</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1121677290145977</v>
+        <v>0.1050188487624337</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06380260141969266</v>
       </c>
       <c r="E94" t="n">
-        <v>1.878999973593937</v>
+        <v>1.93022660131333</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9674406624836047</v>
+        <v>-0.9828289611579583</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08873152701055356</v>
+        <v>0.07335481682905828</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06208183826496932</v>
       </c>
       <c r="E95" t="n">
-        <v>1.801791944886431</v>
+        <v>1.837838256882241</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7243110327149102</v>
+        <v>-0.7323991908092661</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0332122775682081</v>
+        <v>0.02894405267232519</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06486441411529716</v>
       </c>
       <c r="E96" t="n">
-        <v>1.709951309223062</v>
+        <v>1.753739954289512</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.5175046189292694</v>
+        <v>-0.5264661834327286</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01013173532489264</v>
+        <v>-0.01494461938511157</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06954246455251115</v>
       </c>
       <c r="E97" t="n">
-        <v>1.621883642866056</v>
+        <v>1.652186941769607</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2913649395320687</v>
+        <v>-0.2942840198909848</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03354598018457384</v>
+        <v>-0.03670963873486601</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07520094432366167</v>
       </c>
       <c r="E98" t="n">
-        <v>1.48899595557822</v>
+        <v>1.503222965284045</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1607437174790278</v>
+        <v>-0.1570567469880858</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1295639625629904</v>
+        <v>-0.1358894499015445</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.081340795858165</v>
       </c>
       <c r="E99" t="n">
-        <v>1.321975277457531</v>
+        <v>1.319791151514097</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.02618728721960852</v>
+        <v>-0.01658591592624059</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1418001911799099</v>
+        <v>-0.1497407484704928</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08891303460549001</v>
       </c>
       <c r="E100" t="n">
-        <v>1.143929673183945</v>
+        <v>1.135856763106508</v>
       </c>
       <c r="F100" t="n">
-        <v>0.06677316280626998</v>
+        <v>0.07930764263411932</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1923144315488608</v>
+        <v>-0.2089536775312246</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.09726606718903198</v>
       </c>
       <c r="E101" t="n">
-        <v>1.018388480447539</v>
+        <v>1.001123455850832</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1440659704878444</v>
+        <v>0.1616664514567631</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2168247038646583</v>
+        <v>-0.2310395151569485</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1080484561144183</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8446696534548036</v>
+        <v>0.8195409215727836</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1662390267703433</v>
+        <v>0.1800945947840289</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2298428507891688</v>
+        <v>-0.2522421876427413</v>
       </c>
     </row>
   </sheetData>
